--- a/Design/기획서/시나리오/시나리오기획서V1.1.0.xlsx
+++ b/Design/기획서/시나리오/시나리오기획서V1.1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\My Folder\Document\취업준비\동아리\8기 프로젝트\기획서\기획서\1차 프로토타입\시나리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Shindam\Design\기획서\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8F9BD-5BDF-4137-A130-D09383B883B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF2E68-7EEE-4FF1-BBAA-D6A19ABFDFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{615B9377-502F-44FE-9D14-AEBB068F57FE}"/>
   </bookViews>
@@ -48,6 +48,9 @@
     <author>tc={F097AE4A-79AB-4EF5-A499-6B8EB9937C7D}</author>
     <author>tc={377900EC-A71D-4EA6-8C00-1AAC437D6F8A}</author>
     <author>tc={DEF90267-758E-4201-AD44-6A165B63463A}</author>
+    <author>tc={D9A6F9AB-CA72-43BC-BF76-AC7294EFB77D}</author>
+    <author>tc={6FAEDA21-E228-404C-A2F0-268E12FF69E8}</author>
+    <author>tc={FD0DED84-0609-4314-9AF0-4D310344F790}</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{AA2F4F06-42CA-4B11-8EEA-6A28AD6C85AB}">
@@ -114,12 +117,36 @@
     대사 출력 이후 미니게임 시작 유무</t>
       </text>
     </comment>
+    <comment ref="M3" authorId="8" shapeId="0" xr:uid="{D9A6F9AB-CA72-43BC-BF76-AC7294EFB77D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    대사 출력 이후 미니게임 시작 유무</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="9" shapeId="0" xr:uid="{6FAEDA21-E228-404C-A2F0-268E12FF69E8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    대사 출력 이후 미니게임 시작 유무</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="10" shapeId="0" xr:uid="{FD0DED84-0609-4314-9AF0-4D310344F790}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    대사 출력 이후 미니게임 시작 유무</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="71">
   <si>
     <t>개요</t>
   </si>
@@ -263,9 +290,6 @@
     <t>아 그.. 녹차 좀 한잔 부탁하마</t>
   </si>
   <si>
-    <t>네 ㅎㅎ</t>
-  </si>
-  <si>
     <t>맛 좋네</t>
   </si>
   <si>
@@ -327,6 +351,18 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>Minigame_tea</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>넵!!</t>
   </si>
 </sst>
 </file>
@@ -503,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +635,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2487,6 +2527,15 @@
   <threadedComment ref="L3" dT="2024-03-12T14:58:00.52" personId="{AD19FB11-1C86-4CD2-8583-66B09EA616BF}" id="{DEF90267-758E-4201-AD44-6A165B63463A}">
     <text>대사 출력 이후 미니게임 시작 유무</text>
   </threadedComment>
+  <threadedComment ref="M3" dT="2024-03-12T14:58:00.52" personId="{AD19FB11-1C86-4CD2-8583-66B09EA616BF}" id="{D9A6F9AB-CA72-43BC-BF76-AC7294EFB77D}">
+    <text>대사 출력 이후 미니게임 시작 유무</text>
+  </threadedComment>
+  <threadedComment ref="N3" dT="2024-03-12T14:58:00.52" personId="{AD19FB11-1C86-4CD2-8583-66B09EA616BF}" id="{6FAEDA21-E228-404C-A2F0-268E12FF69E8}">
+    <text>대사 출력 이후 미니게임 시작 유무</text>
+  </threadedComment>
+  <threadedComment ref="O3" dT="2024-03-12T14:58:00.52" personId="{AD19FB11-1C86-4CD2-8583-66B09EA616BF}" id="{FD0DED84-0609-4314-9AF0-4D310344F790}">
+    <text>대사 출력 이후 미니게임 시작 유무</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -5245,9 +5294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B25512-8CEE-44CA-A485-6D2ABDA05995}">
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5262,7 +5313,7 @@
     <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.875" customWidth="1"/>
+    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -5335,19 +5386,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>5</v>
@@ -5356,11 +5407,17 @@
         <v>6</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="16"/>
@@ -5386,7 +5443,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>8</v>
@@ -5407,11 +5464,17 @@
         <v>7</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -5458,9 +5521,13 @@
       <c r="L5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="15">
+        <v>800001</v>
+      </c>
+      <c r="O5" s="37"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -5507,9 +5574,13 @@
       <c r="L6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="15">
+        <v>800002</v>
+      </c>
+      <c r="O6" s="37"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -5556,9 +5627,13 @@
       <c r="L7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="15">
+        <v>800003</v>
+      </c>
+      <c r="O7" s="37"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -5605,9 +5680,13 @@
       <c r="L8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="M8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="15">
+        <v>800004</v>
+      </c>
+      <c r="O8" s="37"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -5654,9 +5733,13 @@
       <c r="L9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="15">
+        <v>800005</v>
+      </c>
+      <c r="O9" s="37"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -5703,9 +5786,13 @@
       <c r="L10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="15">
+        <v>800006</v>
+      </c>
+      <c r="O10" s="37"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5752,9 +5839,13 @@
       <c r="L11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="15">
+        <v>800007</v>
+      </c>
+      <c r="O11" s="37"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5801,9 +5892,13 @@
       <c r="L12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="M12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="15">
+        <v>800008</v>
+      </c>
+      <c r="O12" s="37"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -5850,9 +5945,13 @@
       <c r="L13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="M13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="15">
+        <v>800009</v>
+      </c>
+      <c r="O13" s="37"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -5899,9 +5998,13 @@
       <c r="L14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="15">
+        <v>800010</v>
+      </c>
+      <c r="O14" s="37"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -5948,9 +6051,13 @@
       <c r="L15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="M15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="15">
+        <v>800011</v>
+      </c>
+      <c r="O15" s="37"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -5997,9 +6104,13 @@
       <c r="L16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="M16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="15">
+        <v>800012</v>
+      </c>
+      <c r="O16" s="37"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6046,9 +6157,13 @@
       <c r="L17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="M17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="15">
+        <v>800013</v>
+      </c>
+      <c r="O17" s="37"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6095,9 +6210,13 @@
       <c r="L18" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="M18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="15">
+        <v>800014</v>
+      </c>
+      <c r="O18" s="37"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6144,9 +6263,13 @@
       <c r="L19" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="M19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="15">
+        <v>800015</v>
+      </c>
+      <c r="O19" s="37"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -6193,9 +6316,13 @@
       <c r="L20" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="M20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="15">
+        <v>800016</v>
+      </c>
+      <c r="O20" s="37"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -6242,9 +6369,13 @@
       <c r="L21" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="M21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="15">
+        <v>800017</v>
+      </c>
+      <c r="O21" s="37"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -6291,9 +6422,13 @@
       <c r="L22" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="15">
+        <v>800018</v>
+      </c>
+      <c r="O22" s="37"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -6340,9 +6475,13 @@
       <c r="L23" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="M23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="15">
+        <v>800019</v>
+      </c>
+      <c r="O23" s="37"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -6389,9 +6528,13 @@
       <c r="L24" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="M24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="15">
+        <v>800020</v>
+      </c>
+      <c r="O24" s="18"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -6438,9 +6581,13 @@
       <c r="L25" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="M25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="15">
+        <v>800021</v>
+      </c>
+      <c r="O25" s="18"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -6487,9 +6634,13 @@
       <c r="L26" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="M26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="15">
+        <v>800022</v>
+      </c>
+      <c r="O26" s="18"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -6536,9 +6687,13 @@
       <c r="L27" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="M27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="15">
+        <v>800023</v>
+      </c>
+      <c r="O27" s="18"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -6585,9 +6740,13 @@
       <c r="L28" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="M28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="15">
+        <v>800024</v>
+      </c>
+      <c r="O28" s="18"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -6634,9 +6793,13 @@
       <c r="L29" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="M29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="15">
+        <v>800025</v>
+      </c>
+      <c r="O29" s="18"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -6683,9 +6846,13 @@
       <c r="L30" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="M30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="15">
+        <v>800026</v>
+      </c>
+      <c r="O30" s="18"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6732,9 +6899,13 @@
       <c r="L31" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="M31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="15">
+        <v>800027</v>
+      </c>
+      <c r="O31" s="18"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -6781,9 +6952,13 @@
       <c r="L32" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="M32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="15">
+        <v>800028</v>
+      </c>
+      <c r="O32" s="18"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -6830,9 +7005,13 @@
       <c r="L33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="M33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="15">
+        <v>800029</v>
+      </c>
+      <c r="O33" s="18"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -6879,9 +7058,13 @@
       <c r="L34" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="M34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="15">
+        <v>800030</v>
+      </c>
+      <c r="O34" s="18"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -6928,9 +7111,13 @@
       <c r="L35" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="M35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="15">
+        <v>800031</v>
+      </c>
+      <c r="O35" s="18"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -6977,9 +7164,13 @@
       <c r="L36" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="M36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="15">
+        <v>800032</v>
+      </c>
+      <c r="O36" s="18"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -7023,12 +7214,16 @@
       <c r="K37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="L37" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="15">
+        <v>800033</v>
+      </c>
+      <c r="O37" s="18"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -7055,7 +7250,7 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="18" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <v>0</v>
@@ -7075,9 +7270,13 @@
       <c r="L38" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="M38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="15">
+        <v>800034</v>
+      </c>
+      <c r="O38" s="18"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -7096,37 +7295,19 @@
     <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="15">
-        <v>800034</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="18"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -7145,15 +7326,15 @@
     <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="21">
-        <v>800035</v>
+      <c r="C40" s="15">
+        <v>800034</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
@@ -7170,12 +7351,16 @@
       <c r="K40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="L40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N40" s="15">
+        <v>800035</v>
+      </c>
+      <c r="O40" s="18"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -7194,15 +7379,15 @@
     <row r="41" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="15">
-        <v>800036</v>
+      <c r="C41" s="21">
+        <v>800035</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -7222,9 +7407,13 @@
       <c r="L41" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="M41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="15">
+        <v>800036</v>
+      </c>
+      <c r="O41" s="18"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -7244,14 +7433,14 @@
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="15">
-        <v>800037</v>
+        <v>800036</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G42" s="15">
         <v>0</v>
@@ -7271,9 +7460,13 @@
       <c r="L42" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="M42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="15">
+        <v>800037</v>
+      </c>
+      <c r="O42" s="18"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -7292,15 +7485,15 @@
     <row r="43" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="21">
-        <v>800038</v>
+      <c r="C43" s="15">
+        <v>800037</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -7320,9 +7513,13 @@
       <c r="L43" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="M43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="15">
+        <v>800038</v>
+      </c>
+      <c r="O43" s="18"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -7338,40 +7535,44 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="15">
-        <v>800039</v>
+      <c r="C44" s="21">
+        <v>800038</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="20" t="s">
-        <v>52</v>
+      <c r="F44" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="G44" s="15">
-        <v>1</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="21">
-        <v>800042</v>
-      </c>
-      <c r="K44" s="15">
-        <v>800043</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="L44" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="M44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="15">
+        <v>800039</v>
+      </c>
+      <c r="O44" s="18"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -7389,38 +7590,42 @@
     </row>
     <row r="45" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="15">
-        <v>800042</v>
+        <v>800039</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="22" t="s">
-        <v>55</v>
+      <c r="F45" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="21">
+        <v>800042</v>
+      </c>
+      <c r="K45" s="15">
+        <v>800043</v>
       </c>
       <c r="L45" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="M45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="18"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -7440,14 +7645,14 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="15">
-        <v>800043</v>
+        <v>800040</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="24" t="s">
-        <v>61</v>
+      <c r="F46" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -7467,9 +7672,13 @@
       <c r="L46" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+      <c r="M46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="15">
+        <v>800042</v>
+      </c>
+      <c r="O46" s="18"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -7488,15 +7697,15 @@
     <row r="47" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="21">
-        <v>800044</v>
+      <c r="C47" s="15">
+        <v>800041</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="22" t="s">
-        <v>56</v>
+      <c r="F47" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -7516,10 +7725,14 @@
       <c r="L47" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="M47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="15">
+        <v>800042</v>
+      </c>
+      <c r="O47" s="18"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -7538,14 +7751,14 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="15">
-        <v>800045</v>
+        <v>800042</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G48" s="15">
         <v>0</v>
@@ -7565,9 +7778,13 @@
       <c r="L48" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="M48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="15">
+        <v>800043</v>
+      </c>
+      <c r="O48" s="38"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -7587,14 +7804,14 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="15">
-        <v>800046</v>
+        <v>800043</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -7614,9 +7831,13 @@
       <c r="L49" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="M49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="15">
+        <v>800044</v>
+      </c>
+      <c r="O49" s="38"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -7635,15 +7856,15 @@
     <row r="50" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="21">
-        <v>800047</v>
+      <c r="C50" s="15">
+        <v>800044</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G50" s="15">
         <v>0</v>
@@ -7663,8 +7884,13 @@
       <c r="L50" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="M50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="15">
+        <v>800045</v>
+      </c>
+      <c r="O50" s="38"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -7683,19 +7909,41 @@
     <row r="51" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="C51" s="15">
+        <v>800045</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="38"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -7711,18 +7959,18 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -7804,6 +8052,23 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
